--- a/medicine/Maladies infectieuses/Pandémie_de_Covid-19_en_république_du_Congo/Pandémie_de_Covid-19_en_république_du_Congo.xlsx
+++ b/medicine/Maladies infectieuses/Pandémie_de_Covid-19_en_république_du_Congo/Pandémie_de_Covid-19_en_république_du_Congo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_r%C3%A9publique_du_Congo</t>
+          <t>Pandémie_de_Covid-19_en_république_du_Congo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pandémie de Covid-19 est une crise sanitaire majeure provoquée par une maladie infectieuse émergente apparue fin 2019 en Chine continentale, la maladie à coronavirus 2019, dont l'agent pathogène est le SARS-CoV-2. Ce virus est à l'origine d'une pandémie[note 1], déclarée le 11 mars 2020 par l'Organisation mondiale de la santé.
 La pandémie de Covid-19 en république du Congo démarre officiellement le 14 mars 2020. À la date du 24 février 2024, le bilan est de 389 morts.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_r%C3%A9publique_du_Congo</t>
+          <t>Pandémie_de_Covid-19_en_république_du_Congo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,40 +524,42 @@
           <t>Chronologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>14 mars : le premier cas est confirmé, un homme de 50 ans rentrant de Paris, en France, qui commence sérieusement à être touchée par l'épidémie[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>14 mars : le premier cas est confirmé, un homme de 50 ans rentrant de Paris, en France, qui commence sérieusement à être touchée par l'épidémie.
 29 mars : le cap des 10 cas confirmés est dépassé. Le total de cas confirmé est de 19.
-31 mars : les deux premiers décès sont confirmés[3].
+31 mars : les deux premiers décès sont confirmés.
 9 avril : le cap des 50 cas confirmés est dépassé. Le total de cas confirmés est de 60.
 15 avril : le cap des 100 cas confirmés est dépassé. Le total de cas confirmés est de 117.
 27 avril : le cap des 500 cas confirmés est dépassé. Le total de cas confirmés est de 571.
 22 juin : le cap des 1 000 cas confirmés est dépassé. Le total de cas confirmés est de 1 087.
 21 septembre : le cap des 5 000 cas confirmés est dépassé. Le total de cas confirmés est de 5 002.
-En septembre il y avait 461 nouveaux cas et 18 décès, portant le nombre de cas à 5 089 dont 89 décès confirmés[4].
-En octobre il y avait 201 nouveaux cas et trois décès, portant le nombre de cas à 5 290 dont 92 décès[5].
-En novembre il y avait 484 nouveaux cas et deux décès, portant le nombre de cas à 5 774 dont 94 décès[6].
-En décembre il y avait 1 333 nouveaux cas et 14 décès, portant le nombre de cas à 7 107 dont 108 décès[7].
-En janvier 2021 il y avait 780 nouveaux cas et neuf décès, portant le nombre de cas à 7 887 dont 117 décès[8].
-En février 2021 il y avait 933 nouveaux cas et onze décès, portant le nombre de cas à 8 820 dont 128 décès[9].
-En mars 2021 il y avait 861 nouveaux cas et sept décès, portant le nombre de cas à 9 681 dont 135 décès[10].
-En avril 2021 il y avait 997 nouveaux cas et neuf décès, portant le nombre de cas à 10 678 dont 144 décès[11].
-En mai 2021 il y avait 980 nouveaux cas et neuf décès, portant le nombre de cas à 11 658 dont 153 décès[12].
-En juin 2021 il y avait 935 nouveaux cas et 12 décès, portant le nombre de cas à 12 596 dont 165 décès[13].
-En juillet 2021 il y avait 590 nouveaux cas et 13 décès, portant le nombre de cas à 13 186 dont 178 décès[14].
-En août 2021 il y avait 402 nouveaux cas et 5 décès, portant le nombre de cas à 13 588 dont 183 décès[15].
-En septembre 2021 il y avait 656 nouveaux cas et 10 décès, portant le nombre de cas à 14 244 dont 193 décès[16].
-En octobre 2021 il y avait 3 426 nouveaux cas et 85 décès, portant le nombre de cas à 17 670 dont 278 décès[17].
-En novembre 2021 il y avait 1 300 nouveaux cas et 76 décès, portant le nombre de cas à 18 970 dont 354 décès[18].
-En décembre 2021 il y avait 2 307 nouveaux cas et 15 décès, portant le nombre de cas à 21 277 dont 369 décès[19].
-En janvier 2022 il y avait 2 428 nouveaux cas et deux décès, portant le nombre de cas à 23 705 dont 371 décès[20].
+En septembre il y avait 461 nouveaux cas et 18 décès, portant le nombre de cas à 5 089 dont 89 décès confirmés.
+En octobre il y avait 201 nouveaux cas et trois décès, portant le nombre de cas à 5 290 dont 92 décès.
+En novembre il y avait 484 nouveaux cas et deux décès, portant le nombre de cas à 5 774 dont 94 décès.
+En décembre il y avait 1 333 nouveaux cas et 14 décès, portant le nombre de cas à 7 107 dont 108 décès.
+En janvier 2021 il y avait 780 nouveaux cas et neuf décès, portant le nombre de cas à 7 887 dont 117 décès.
+En février 2021 il y avait 933 nouveaux cas et onze décès, portant le nombre de cas à 8 820 dont 128 décès.
+En mars 2021 il y avait 861 nouveaux cas et sept décès, portant le nombre de cas à 9 681 dont 135 décès.
+En avril 2021 il y avait 997 nouveaux cas et neuf décès, portant le nombre de cas à 10 678 dont 144 décès.
+En mai 2021 il y avait 980 nouveaux cas et neuf décès, portant le nombre de cas à 11 658 dont 153 décès.
+En juin 2021 il y avait 935 nouveaux cas et 12 décès, portant le nombre de cas à 12 596 dont 165 décès.
+En juillet 2021 il y avait 590 nouveaux cas et 13 décès, portant le nombre de cas à 13 186 dont 178 décès.
+En août 2021 il y avait 402 nouveaux cas et 5 décès, portant le nombre de cas à 13 588 dont 183 décès.
+En septembre 2021 il y avait 656 nouveaux cas et 10 décès, portant le nombre de cas à 14 244 dont 193 décès.
+En octobre 2021 il y avait 3 426 nouveaux cas et 85 décès, portant le nombre de cas à 17 670 dont 278 décès.
+En novembre 2021 il y avait 1 300 nouveaux cas et 76 décès, portant le nombre de cas à 18 970 dont 354 décès.
+En décembre 2021 il y avait 2 307 nouveaux cas et 15 décès, portant le nombre de cas à 21 277 dont 369 décès.
+En janvier 2022 il y avait 2 428 nouveaux cas et deux décès, portant le nombre de cas à 23 705 dont 371 décès.
 En février 2022 il y avait 315 nouveaux cas et sept décès, portant le nombre de cas à 24 020 dont 378 décès.
 En mars 2022 il y avait 51 nouveaux cas et sept décès, portant le nombre de cas à 24 071 dont 385 décès.
-En avril 2022 il y avait 32 nouveaux cas, portant le nombre de cas à 24 103 dont 385 décès[21].
-En mai 2022 il y avait 11 nouveaux cas, portant le nombre de cas à 24 114 dont 385 décès[22].
-En juin 2022 il y avait 76 nouveaux cas, portant le nombre de cas à 24 190 dont 385 décès[23].
-En juillet 2022 il y avait 585 nouveaux cas et un décès, portant le nombre de cas à 24 775 dont 386 décès[24].
-En août 2022 il y avait 62 nouveaux cas, portant le nombre de cas à 24 837 dont 386 décès[25].</t>
+En avril 2022 il y avait 32 nouveaux cas, portant le nombre de cas à 24 103 dont 385 décès.
+En mai 2022 il y avait 11 nouveaux cas, portant le nombre de cas à 24 114 dont 385 décès.
+En juin 2022 il y avait 76 nouveaux cas, portant le nombre de cas à 24 190 dont 385 décès.
+En juillet 2022 il y avait 585 nouveaux cas et un décès, portant le nombre de cas à 24 775 dont 386 décès.
+En août 2022 il y avait 62 nouveaux cas, portant le nombre de cas à 24 837 dont 386 décès.</t>
         </is>
       </c>
     </row>
@@ -555,7 +569,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_r%C3%A9publique_du_Congo</t>
+          <t>Pandémie_de_Covid-19_en_république_du_Congo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -573,9 +587,11 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour le traitement des patients, le Président Denis Sassou-Nguesso déclare, en mai 2020, « son soutien au controversé remède proposé par l’infectiologue français Didier Raoult, basé sur l'hydroxychloroquine, et celui, développé par Madagascar, (Covid-Organics) à partir de la plante d'Artemisia[26] ».
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour le traitement des patients, le Président Denis Sassou-Nguesso déclare, en mai 2020, « son soutien au controversé remède proposé par l’infectiologue français Didier Raoult, basé sur l'hydroxychloroquine, et celui, développé par Madagascar, (Covid-Organics) à partir de la plante d'Artemisia ».
 </t>
         </is>
       </c>
@@ -586,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_r%C3%A9publique_du_Congo</t>
+          <t>Pandémie_de_Covid-19_en_république_du_Congo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -605,6 +621,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -612,7 +630,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_r%C3%A9publique_du_Congo</t>
+          <t>Pandémie_de_Covid-19_en_république_du_Congo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -630,7 +648,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Pandémie de Covid-19 en Afrique</t>
         </is>
